--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,16 +49,19 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>broken</t>
@@ -88,310 +91,325 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>good</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>nicely</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>clean</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>product</t>
@@ -761,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +787,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +848,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,31 +966,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0.8828125</v>
+      </c>
+      <c r="L5">
+        <v>113</v>
+      </c>
+      <c r="M5">
+        <v>113</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.875</v>
-      </c>
-      <c r="L5">
-        <v>112</v>
-      </c>
-      <c r="M5">
-        <v>112</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +998,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8699690402476781</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1048,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3953488372093023</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7272727272727273</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3232323232323233</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7254237288135593</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,37 +1148,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2727272727272727</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2444444444444444</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.70995670995671</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L10">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M10">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1248,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1891891891891892</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.6875</v>
+        <v>0.6796536796536796</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,63 +1298,87 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1568627450980392</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>152</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.6693418940609952</v>
+      </c>
+      <c r="L12">
+        <v>834</v>
+      </c>
+      <c r="M12">
+        <v>834</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.06</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>86</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.6813804173354735</v>
-      </c>
-      <c r="L12">
-        <v>849</v>
-      </c>
-      <c r="M12">
-        <v>849</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>87</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6628571428571428</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6304347826086957</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6140350877192983</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.5961538461538461</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L19">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,47 +1546,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.5662650602409639</v>
+      </c>
+      <c r="L20">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>36</v>
-      </c>
-      <c r="K20">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5633802816901409</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1582,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5389221556886228</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1608,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5299145299145299</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1634,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.52</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1660,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5138888888888888</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1686,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5112781954887218</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1712,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.4939759036144578</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1738,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1764,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4698795180722892</v>
+        <v>0.484375</v>
       </c>
       <c r="L30">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1790,47 +1832,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4603174603174603</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4558823529411765</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1842,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4426229508196721</v>
+        <v>0.443579766536965</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1868,47 +1910,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4373464373464374</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L34">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>229</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1920,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>0.4285714285714285</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1946,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4153846153846154</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1972,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.4085603112840467</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L38">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1998,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3902439024390244</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2024,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3712328767123287</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2050,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>459</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3709677419354839</v>
+        <v>0.39</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2076,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2102,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3580246913580247</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2128,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3397129186602871</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="L44">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2154,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3383458646616541</v>
+        <v>0.3767123287671233</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2180,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>88</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3333333333333333</v>
+        <v>0.3492822966507177</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2206,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3143164693218515</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L47">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2232,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>637</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3090909090909091</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2258,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.304635761589404</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2284,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.3</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2310,47 +2352,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51">
+        <v>0.3366336633663367</v>
+      </c>
+      <c r="L51">
+        <v>34</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>67</v>
-      </c>
-      <c r="K51">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="L51">
-        <v>30</v>
-      </c>
-      <c r="M51">
-        <v>30</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2877697841726619</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2362,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2794701986754967</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L53">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2388,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>544</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2727272727272727</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L54">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2414,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>232</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2714468629961588</v>
+        <v>0.3153928955866523</v>
       </c>
       <c r="L55">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="M55">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2437,24 +2479,24 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>569</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2702702702702703</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2466,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2684563758389262</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2492,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2678571428571428</v>
+        <v>0.2852664576802508</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2518,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2638888888888889</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2544,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2631578947368421</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2570,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.25</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M61">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2596,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.2380952380952381</v>
+        <v>0.2754966887417218</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2622,47 +2664,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>48</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.2363636363636364</v>
+        <v>0.2698209718670077</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>84</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.2295081967213115</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2674,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.2208588957055215</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L65">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2700,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.22</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2726,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.219047619047619</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2752,99 +2794,99 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.217983651226158</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L68">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M68">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>287</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69">
         <v>0.2142857142857143</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.2083333333333333</v>
+        <v>0.2135135135135135</v>
       </c>
       <c r="L70">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M70">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>361</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.2065217391304348</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2856,21 +2898,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72">
+        <v>0.2</v>
+      </c>
+      <c r="L72">
         <v>88</v>
       </c>
-      <c r="K72">
-        <v>0.2052505966587112</v>
-      </c>
-      <c r="L72">
-        <v>86</v>
-      </c>
       <c r="M72">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2882,21 +2924,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.201219512195122</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="L73">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2908,21 +2950,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1954545454545455</v>
+        <v>0.1922141119221411</v>
       </c>
       <c r="L74">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M74">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2934,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1846153846153846</v>
+        <v>0.19</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2960,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1807228915662651</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2986,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1751824817518248</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L77">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3012,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>339</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1743119266055046</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3038,73 +3080,73 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1724137931034483</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L79">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>240</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1717171717171717</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1709401709401709</v>
+        <v>0.1766109785202864</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3116,73 +3158,73 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>97</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.1633663366336634</v>
+        <v>0.1753731343283582</v>
       </c>
       <c r="L82">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M82">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N82">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.1608391608391608</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.1596638655462185</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L84">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M84">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3194,21 +3236,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.1578947368421053</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3220,21 +3262,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.1549815498154982</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L86">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M86">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3246,21 +3288,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.1526717557251908</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3272,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.1502732240437158</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L88">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3298,47 +3340,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>311</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.1472868217054264</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>110</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.1454545454545454</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="L90">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M90">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3350,125 +3392,125 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>141</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.141025641025641</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L91">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M91">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.126984126984127</v>
+        <v>0.1482758620689655</v>
       </c>
       <c r="L92">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M92">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>110</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.1256038647342995</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M93">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N93">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>181</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.125</v>
+        <v>0.1417004048582996</v>
       </c>
       <c r="L94">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>154</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1233766233766234</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3480,449 +3522,579 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1206735266604303</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L96">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="N96">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>940</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1189591078066914</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L97">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N97">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O97">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>237</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1169354838709677</v>
+        <v>0.125</v>
       </c>
       <c r="L98">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1047345767575323</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L99">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="M99">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>624</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.09239130434782608</v>
+        <v>0.1119081779053085</v>
       </c>
       <c r="L100">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N100">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O100">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>167</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.09191176470588236</v>
+        <v>0.1065420560747664</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>247</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.08951406649616368</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L102">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N102">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>356</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.08782608695652173</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L103">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="M103">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>1049</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.08317929759704251</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L104">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>496</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.07983193277310924</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M105">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N105">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O105">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>219</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.07142857142857142</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="L106">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M106">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.06067961165048544</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="L107">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M107">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N107">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O107">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>387</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.05973025048169557</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="L108">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N108">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>488</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.05539358600583091</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M109">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N109">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O109">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>324</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.0451527224435591</v>
+        <v>0.07024029574861368</v>
       </c>
       <c r="L110">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M110">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N110">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="O110">
-        <v>0.29</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>719</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.04383561643835616</v>
+        <v>0.06691449814126393</v>
       </c>
       <c r="L111">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N111">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="O111">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>349</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.02747252747252747</v>
+        <v>0.06506849315068493</v>
       </c>
       <c r="L112">
+        <v>19</v>
+      </c>
+      <c r="M112">
+        <v>26</v>
+      </c>
+      <c r="N112">
+        <v>0.73</v>
+      </c>
+      <c r="O112">
+        <v>0.27</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K113">
+        <v>0.05830903790087463</v>
+      </c>
+      <c r="L113">
         <v>20</v>
       </c>
-      <c r="M112">
-        <v>27</v>
-      </c>
-      <c r="N112">
-        <v>0.74</v>
-      </c>
-      <c r="O112">
-        <v>0.26</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>708</v>
+      <c r="M113">
+        <v>22</v>
+      </c>
+      <c r="N113">
+        <v>0.91</v>
+      </c>
+      <c r="O113">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K114">
+        <v>0.05029013539651837</v>
+      </c>
+      <c r="L114">
+        <v>26</v>
+      </c>
+      <c r="M114">
+        <v>31</v>
+      </c>
+      <c r="N114">
+        <v>0.84</v>
+      </c>
+      <c r="O114">
+        <v>0.16</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K115">
+        <v>0.04881266490765172</v>
+      </c>
+      <c r="L115">
+        <v>37</v>
+      </c>
+      <c r="M115">
+        <v>46</v>
+      </c>
+      <c r="N115">
+        <v>0.8</v>
+      </c>
+      <c r="O115">
+        <v>0.2</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K116">
+        <v>0.0446927374301676</v>
+      </c>
+      <c r="L116">
+        <v>16</v>
+      </c>
+      <c r="M116">
+        <v>29</v>
+      </c>
+      <c r="N116">
+        <v>0.55</v>
+      </c>
+      <c r="O116">
+        <v>0.45</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117">
+        <v>0.02200825309491059</v>
+      </c>
+      <c r="L117">
+        <v>16</v>
+      </c>
+      <c r="M117">
+        <v>24</v>
+      </c>
+      <c r="N117">
+        <v>0.67</v>
+      </c>
+      <c r="O117">
+        <v>0.33</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
